--- a/data_science_dashboar/Data science dashboard.xlsx
+++ b/data_science_dashboar/Data science dashboard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\excel_dashbaord\data_science_dashboar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -1538,8 +1537,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF2805FB"/>
       <color rgb="FF0BAD0F"/>
-      <color rgb="FF2805FB"/>
       <color rgb="FF0000CC"/>
       <color rgb="FF990033"/>
       <color rgb="FFA50021"/>
@@ -1578,7 +1577,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[b8eedc6d8a2a4f6fa877361296f58ed4 (1).xlsx]Pivot!PivotTable1</c:name>
+    <c:name>[Data science dashboard.xlsx]Pivot!PivotTable1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -2212,7 +2211,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[b8eedc6d8a2a4f6fa877361296f58ed4 (1).xlsx]Pivot!PivotTable4</c:name>
+    <c:name>[Data science dashboard.xlsx]Pivot!PivotTable4</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -2466,9 +2465,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:srgbClr val="2805FB"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2476,18 +2473,60 @@
           <a:effectLst>
             <a:softEdge rad="0"/>
           </a:effectLst>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:srgbClr val="2805FB"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2495,15 +2534,14 @@
           <a:effectLst>
             <a:softEdge rad="0"/>
           </a:effectLst>
+          <a:sp3d/>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:srgbClr val="2805FB"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2511,14 +2549,54 @@
           <a:effectLst>
             <a:softEdge rad="0"/>
           </a:effectLst>
+          <a:sp3d/>
         </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="30"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2536,9 +2614,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="2805FB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2546,8 +2622,65 @@
             <a:effectLst>
               <a:softEdge rad="0"/>
             </a:effectLst>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Pivot!$A$12:$A$56</c:f>
@@ -2829,33 +2962,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:shape val="cylinder"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:overlap val="100"/>
-        <c:serLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="dbl" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:serLines>
-        <c:axId val="338251344"/>
-        <c:axId val="337114568"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="401516488"/>
+        <c:axId val="401517664"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="338251344"/>
+        <c:axId val="401516488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,7 +3021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337114568"/>
+        <c:crossAx val="401517664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,7 +3029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337114568"/>
+        <c:axId val="401517664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +3080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338251344"/>
+        <c:crossAx val="401516488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3029,7 +3153,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[b8eedc6d8a2a4f6fa877361296f58ed4 (1).xlsx]Pivot!PivotTable5</c:name>
+    <c:name>[Data science dashboard.xlsx]Pivot!PivotTable5</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -3066,7 +3190,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14671425418151504"/>
+          <c:y val="6.5492417210310724E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3225,6 +3356,7 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -3240,6 +3372,7 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -3255,6 +3388,7 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
@@ -3270,12 +3404,52 @@
             <a:noFill/>
           </a:ln>
           <a:effectLst/>
+          <a:sp3d/>
         </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="10"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="10"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3288,7 +3462,7 @@
           <c:h val="0.72146539120025321"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -3314,6 +3488,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3380,6 +3555,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3440,6 +3616,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3506,6 +3683,7 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3553,12 +3731,13 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="340023120"/>
-        <c:axId val="340016456"/>
-      </c:barChart>
+        <c:shape val="cylinder"/>
+        <c:axId val="401518840"/>
+        <c:axId val="401519624"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="340023120"/>
+        <c:axId val="401518840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340016456"/>
+        <c:crossAx val="401519624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3608,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340016456"/>
+        <c:axId val="401519624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,7 +3835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340023120"/>
+        <c:crossAx val="401518840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3676,8 +3855,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.86115860280318102"/>
           <c:y val="0.21708571060720905"/>
-          <c:w val="0.11009814727212136"/>
-          <c:h val="0.66233315360752121"/>
+          <c:w val="0.10978576663287958"/>
+          <c:h val="0.26577382018653806"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3800,7 +3979,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[b8eedc6d8a2a4f6fa877361296f58ed4 (1).xlsx]Pivot!PivotTable6</c:name>
+    <c:name>[Data science dashboard.xlsx]Pivot!PivotTable6</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -4288,11 +4467,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340021160"/>
-        <c:axId val="340022728"/>
+        <c:axId val="401513744"/>
+        <c:axId val="401514528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340021160"/>
+        <c:axId val="401513744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,7 +4563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340022728"/>
+        <c:crossAx val="401514528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4392,7 +4571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340022728"/>
+        <c:axId val="401514528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4494,7 +4673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340021160"/>
+        <c:crossAx val="401513744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6690,8 +6869,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125604</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6715,15 +6894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
+      <xdr:colOff>51424</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>27485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>398930</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:colOff>432424</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>75362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6747,15 +6926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>477214</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>510708</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>216374</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66989</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6779,15 +6958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142048</xdr:rowOff>
+      <xdr:colOff>16747</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>167169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:colOff>214867</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>87875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6811,15 +6990,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:colOff>527538</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>35857</xdr:rowOff>
+      <xdr:rowOff>35856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167472</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -6883,15 +7062,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>519164</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>527304</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82296</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100483</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -6921,8 +7100,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5958840" y="2301240"/>
-              <a:ext cx="1883664" cy="1499616"/>
+              <a:off x="6020637" y="2608887"/>
+              <a:ext cx="1841964" cy="1711904"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12225,7 +12404,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="43">
   <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -12476,7 +12655,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A74:B79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -12564,7 +12743,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A60:F66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -12755,7 +12934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="A11:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -13264,7 +13443,7 @@
   </sheetPr>
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView topLeftCell="C272" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -25930,7 +26109,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26539,8 +26718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="T91" sqref="T91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/data_science_dashboar/Data science dashboard.xlsx
+++ b/data_science_dashboar/Data science dashboard.xlsx
@@ -18,8 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
-    <definedName name="Slicer_company_size">#N/A</definedName>
-    <definedName name="Slicer_experience_level">#N/A</definedName>
+    <definedName name="Slicer_company_location">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
@@ -29,7 +28,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId5"/>
-        <x14:slicerCache r:id="rId6"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2974,12 +2972,12 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:shape val="box"/>
-        <c:axId val="401516488"/>
-        <c:axId val="401517664"/>
+        <c:axId val="333479264"/>
+        <c:axId val="332354672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="401516488"/>
+        <c:axId val="333479264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401517664"/>
+        <c:crossAx val="332354672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3029,7 +3027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401517664"/>
+        <c:axId val="332354672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401516488"/>
+        <c:crossAx val="333479264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3732,12 +3730,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="401518840"/>
-        <c:axId val="401519624"/>
+        <c:axId val="332933712"/>
+        <c:axId val="332934096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="401518840"/>
+        <c:axId val="332933712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401519624"/>
+        <c:crossAx val="332934096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3787,7 +3785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401519624"/>
+        <c:axId val="332934096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3835,7 +3833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401518840"/>
+        <c:crossAx val="332933712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4467,11 +4465,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401513744"/>
-        <c:axId val="401514528"/>
+        <c:axId val="333618512"/>
+        <c:axId val="333558656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401513744"/>
+        <c:axId val="333618512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,7 +4561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401514528"/>
+        <c:crossAx val="333558656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4571,7 +4569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401514528"/>
+        <c:axId val="333558656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401513744"/>
+        <c:crossAx val="333618512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6859,18 +6857,95 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="company_location"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="company_location"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6667500" y="10340340"/>
+              <a:ext cx="1828800" cy="2238375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>6267</xdr:colOff>
+      <xdr:colOff>586154</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>17928</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>209340</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>125604</xdr:rowOff>
+      <xdr:rowOff>133978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6987,150 +7062,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>527538</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>35856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>167472</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="experience_level 1"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="experience_level 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5958840" y="706417"/>
-              <a:ext cx="1883036" cy="1495763"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>519164</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96799</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>527304</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>100483</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="company_size 1"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="company_size 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6020637" y="2608887"/>
-              <a:ext cx="1841964" cy="1711904"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -7199,6 +7130,78 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502418</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125604</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="company_location 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="company_location 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6029011" y="728506"/>
+              <a:ext cx="2419978" cy="3617406"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12773,7 +12776,56 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="46">
+        <item x="12"/>
+        <item x="42"/>
+        <item x="16"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="15"/>
+        <item x="40"/>
+        <item x="34"/>
+        <item x="10"/>
+        <item x="36"/>
+        <item x="44"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="33"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="30"/>
+        <item x="4"/>
+        <item x="41"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
@@ -13214,40 +13266,58 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_experience_level" sourceName="experience_level">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_company_location" sourceName="company_location">
   <pivotTables>
-    <pivotTable tabId="3" name="PivotTable1"/>
-    <pivotTable tabId="3" name="PivotTable4"/>
     <pivotTable tabId="3" name="PivotTable5"/>
-    <pivotTable tabId="3" name="PivotTable6"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="4">
+      <items count="45">
+        <i x="12" s="1"/>
+        <i x="42" s="1"/>
+        <i x="16" s="1"/>
+        <i x="29" s="1"/>
+        <i x="28" s="1"/>
+        <i x="15" s="1"/>
+        <i x="40" s="1"/>
+        <i x="34" s="1"/>
+        <i x="10" s="1"/>
+        <i x="36" s="1"/>
+        <i x="44" s="1"/>
+        <i x="0" s="1"/>
+        <i x="20" s="1"/>
+        <i x="18" s="1"/>
+        <i x="7" s="1"/>
         <i x="2" s="1"/>
+        <i x="11" s="1"/>
         <i x="3" s="1"/>
-        <i x="0" s="1"/>
+        <i x="22" s="1"/>
+        <i x="5" s="1"/>
+        <i x="31" s="1"/>
+        <i x="8" s="1"/>
+        <i x="27" s="1"/>
+        <i x="35" s="1"/>
+        <i x="21" s="1"/>
         <i x="1" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_company_size" sourceName="company_size">
-  <pivotTables>
-    <pivotTable tabId="3" name="PivotTable1"/>
-    <pivotTable tabId="3" name="PivotTable4"/>
-    <pivotTable tabId="3" name="PivotTable5"/>
-    <pivotTable tabId="3" name="PivotTable6"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="3">
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
+        <i x="38" s="1"/>
+        <i x="23" s="1"/>
+        <i x="37" s="1"/>
+        <i x="33" s="1"/>
+        <i x="14" s="1"/>
+        <i x="17" s="1"/>
+        <i x="13" s="1"/>
+        <i x="6" s="1"/>
+        <i x="9" s="1"/>
+        <i x="24" s="1"/>
+        <i x="19" s="1"/>
+        <i x="26" s="1"/>
+        <i x="32" s="1"/>
+        <i x="25" s="1"/>
+        <i x="39" s="1"/>
+        <i x="43" s="1"/>
+        <i x="30" s="1"/>
+        <i x="4" s="1"/>
+        <i x="41" s="1"/>
       </items>
     </tabular>
   </data>
@@ -13256,8 +13326,13 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="experience_level 1" cache="Slicer_experience_level" caption="experience_level" columnCount="2" rowHeight="548640"/>
-  <slicer name="company_size 1" cache="Slicer_company_size" caption="company_size" columnCount="2" rowHeight="548640"/>
+  <slicer name="company_location" cache="Slicer_company_location" caption="company_location" rowHeight="209550"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="company_location 1" cache="Slicer_company_location" caption="company_location" columnCount="5" rowHeight="320040"/>
 </slicers>
 </file>
 
@@ -26109,12 +26184,12 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
@@ -26711,6 +26786,14 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId7"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -26718,8 +26801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/data_science_dashboar/Data science dashboard.xlsx
+++ b/data_science_dashboar/Data science dashboard.xlsx
@@ -15,19 +15,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot" sheetId="3" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId3"/>
+    <sheet name="subjective ans." sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$301</definedName>
     <definedName name="Slicer_company_location">#N/A</definedName>
+    <definedName name="Slicer_company_size">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="450">
   <si>
     <t>Index</t>
   </si>
@@ -1364,13 +1367,37 @@
   </si>
   <si>
     <t>Average Salary vs. Experience Level:</t>
+  </si>
+  <si>
+    <t>1. How is the distribution of company sizes in the Data Science job market? Are certain company sizes more prevalent in hiring Data Science professionals?</t>
+  </si>
+  <si>
+    <t>2. Which job titles command higher average salaries in the Data Science field? Can we identify specific roles that offer more competitive compensation?</t>
+  </si>
+  <si>
+    <t>3. Are there differences in employee counts based on experience levels and enrollment types? Does the hiring trend favor full-time or part-time employees at different experience levels?</t>
+  </si>
+  <si>
+    <t>4. How do average salaries vary with experience levels in Data Science? Is there a clear correlation between experience and earning potential?</t>
+  </si>
+  <si>
+    <t>Ans .   We have three type(large, mediam , small) of company size distribution in the Data Science job matket. Large company are more prevalent in hiring Data Science professionals.</t>
+  </si>
+  <si>
+    <t>Ans. ML Engineer job titles command higher average salaries in the Data Science field . Yes we can identify this two job role  BI Data Analyst  and Data science manager that offer more competitve compentiation.</t>
+  </si>
+  <si>
+    <t>Ans.   Yes there is difference in employee count based on experience level and enrollment types , the hiring trend favours full time employees at different experiences levels</t>
+  </si>
+  <si>
+    <t>ans . Average salaries vary with experience in levels in data science, intermediate are have more average salaries in data science, yes there is a clear correlation betwee experience and       earning potential.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1394,6 +1421,19 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1434,7 +1474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1451,6 +1491,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,7 +1665,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1673,7 +1725,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -1722,7 +1773,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -2022,7 +2072,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2972,12 +3021,12 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:shape val="box"/>
-        <c:axId val="333479264"/>
-        <c:axId val="332354672"/>
+        <c:axId val="123826808"/>
+        <c:axId val="123827192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="333479264"/>
+        <c:axId val="123826808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332354672"/>
+        <c:crossAx val="123827192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3027,7 +3076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332354672"/>
+        <c:axId val="123827192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333479264"/>
+        <c:crossAx val="123826808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3359,6 +3408,50 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -3375,6 +3468,50 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -3391,6 +3528,50 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -3407,6 +3588,50 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -3489,6 +3714,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Pivot!$A$62:$A$66</c:f>
@@ -3556,6 +3839,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Pivot!$A$62:$A$66</c:f>
@@ -3617,6 +3958,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Pivot!$A$62:$A$66</c:f>
@@ -3684,6 +4083,64 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Pivot!$A$62:$A$66</c:f>
@@ -3722,7 +4179,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3730,12 +4187,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="332933712"/>
-        <c:axId val="332934096"/>
+        <c:axId val="123870640"/>
+        <c:axId val="123871024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="332933712"/>
+        <c:axId val="123870640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,7 +4234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332934096"/>
+        <c:crossAx val="123871024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3785,7 +4242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332934096"/>
+        <c:axId val="123871024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +4290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332933712"/>
+        <c:crossAx val="123870640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4465,11 +4922,11 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333618512"/>
-        <c:axId val="333558656"/>
+        <c:axId val="123918512"/>
+        <c:axId val="123918896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="333618512"/>
+        <c:axId val="123918512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,7 +5018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333558656"/>
+        <c:crossAx val="123918896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4569,7 +5026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333558656"/>
+        <c:axId val="123918896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,7 +5128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333618512"/>
+        <c:crossAx val="123918512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6870,8 +7327,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="company_location"/>
@@ -6888,7 +7345,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6900,6 +7357,78 @@
             <a:xfrm>
               <a:off x="6667500" y="10340340"/>
               <a:ext cx="1828800" cy="2238375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="company_size"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="company_size"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6256020" y="7063741"/>
+              <a:ext cx="1828800" cy="1059180"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7142,11 +7671,11 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>502418</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>125604</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16747</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="company_location 1"/>
@@ -7163,7 +7692,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7175,6 +7704,78 @@
             <a:xfrm>
               <a:off x="6029011" y="728506"/>
               <a:ext cx="2419978" cy="3617406"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>529214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510792</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63389</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="company_size 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="company_size 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6030687" y="3391989"/>
+              <a:ext cx="2426676" cy="1059180"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13324,15 +13925,37 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_company_size" sourceName="company_size">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable5"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="3" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="company_location" cache="Slicer_company_location" caption="company_location" rowHeight="209550"/>
+  <slicer name="company_size" cache="Slicer_company_size" caption="company_size" rowHeight="209550"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="company_location 1" cache="Slicer_company_location" caption="company_location" columnCount="5" rowHeight="320040"/>
+  <slicer name="company_size 1" cache="Slicer_company_size" caption="company_size" rowHeight="209550"/>
 </slicers>
 </file>
 
@@ -26183,13 +26806,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
@@ -26801,8 +27424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26823,4 +27446,65 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="153.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>